--- a/biology/Médecine/Association_Claude-Bernard/Association_Claude-Bernard.xlsx
+++ b/biology/Médecine/Association_Claude-Bernard/Association_Claude-Bernard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Association Claude-Bernard ou ACB, de son nom complet « Association Claude-Bernard pour le développement des recherches biologiques et médicales dans les hôpitaux de l'Assistance publique à Paris », était un regroupement de cliniciens fondé en 1953 et qui visait à accélérer la recherche biomédicale en France en favorisant la création d'unités hospitalières de recherche.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle était dirigée par le maire de Paris et l'ACB était inscrite au budget de la Ville et du Département. Elle a été reconnue d'utilité publique dès sa création. Le Conseil général de la Seine décide sa création en 30 juin 1953. Elle est créée finalement par décret le 11 décembre 1956. Le budget de l'ACB est désormais inscrit sur le budget de la ville et du département. Le premier conseil scientifique réunit des personnalités de premier plan : L. Valéry-Radot, Robert Debré, Robert Courrier (Collège de France), les doyens Léon Binet et Fabre, et Louis Bugnard (directeur de l'Institut national d'hygiène) (INH).
 L'Institut national d'hygiène est créé en 1941  pour « effectuer des travaux de laboratoire intéressant la santé publique, coordonner les enquêtes sanitaires menées dans le pays ».
@@ -547,7 +561,9 @@
           <t>Centres de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ces centres de recherche de l’Association Claude-Bernard donneront par la suite naissance aux premières unités de recherche de l'INSERM :
 Insuffisance rénale, Jean Hamburger, hôpital Necker, future unité Inserm 25
@@ -560,7 +576,7 @@
 Physiologie et radiobiologie cellulaires, Raymond Latarjet, Institut Curie, Orsay, future unité 22
 Développement néonatal, Alexandre Minkowski, hôpital Cochin, future unité 29
 Recherches isotopiques, René Fauvert, hôpital Beaujon, future unité 24
-Pathologie chirurgicale (en), Pierre Mallet-Guy[2], hôpital Édouard-Herriot, Lyon, future unité 4
+Pathologie chirurgicale (en), Pierre Mallet-Guy, hôpital Édouard-Herriot, Lyon, future unité 4
 Biochimie des protéines normales et pathologiques, Paul Boulanger, CHU de Lille, future unité 16
 Gastroentérologie, Serge Bonfils et André Lambling, hôpital Bichât, future unité 10
 Physiologie animale, Édouard Housset, AF[Quoi ?], Fer à moulin, future unité 36
@@ -594,11 +610,13 @@
           <t>Dissolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès lors, l'ACB va connaître une stagnation, puis un lent déclin de ses moyens de recherche. La création des nouveaux départements d'Île-de-France devait lui porter un coup fatal.
-La subvention versée par la Ville de Paris est remise en cause dans les années 1990[3].
-L'Association Claude-Bernard a été dissoute en septembre 2003[1] après cinquante années d'existence au service de la communauté médicale et de la recherche clinique.
+La subvention versée par la Ville de Paris est remise en cause dans les années 1990.
+L'Association Claude-Bernard a été dissoute en septembre 2003 après cinquante années d'existence au service de la communauté médicale et de la recherche clinique.
 </t>
         </is>
       </c>
